--- a/biology/Biologie cellulaire et moléculaire/Colonne_de_biologie_moléculaire/Colonne_de_biologie_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Colonne_de_biologie_moléculaire/Colonne_de_biologie_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colonne_de_biologie_mol%C3%A9culaire</t>
+          <t>Colonne_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une colonne est un élément souvent présent dans un kit de biologie moléculaire permettant de réaliser des extractions ou des purifications d'acides nucléiques par fixation sur un filtre.
 Le schéma ci-contre représente une colonne de fixation de l'ADN placée au-dessus d'un tube collecteur. Marqué en A est le filtre d'hydroxyapatite, substance fixatrice de l'ADN (ayant une grande affinité chimique pour l'ADN).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colonne_de_biologie_mol%C3%A9culaire</t>
+          <t>Colonne_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,12 @@
           <t>Colonne d'élution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est utilisée principalement pour l'extraction et la séparation des protéines. La solution contenant les protéines à séparer traverse la colonne par simple gravité et entrainement par le liquide d'élution (bleu ciel) distribué en goutte à goutte arrivant par le haut de la colonne.
 Sur le schéma deux composés (bleu et rouge) déposés en mélange en haut de la colonne ayant une affinité différente pour le substrat de la colonne (A : en grisé), se retrouvent séparés et peuvent être collectés à des temps différents en bas de la colonne.
-Colonne de filtration
-Une colonne de filtration est composée d'un substrat ayant une très forte affinité pour le composé à filtrer. 
-Par exemple, il existe des colonnes de dépollution des solutions de bromure d'éthidium (BEt), un composé toxique, qui ne doit pas être relargué dans la nature (jeté à l'évier). Le BEt est fixé sur le substrat, seul le solvant liquide traverse la colonne et peut être jeté, car débarrassé du toxique.
 </t>
         </is>
       </c>
@@ -530,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colonne_de_biologie_mol%C3%A9culaire</t>
+          <t>Colonne_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +556,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Colonne d'élution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Colonne de filtration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une colonne de filtration est composée d'un substrat ayant une très forte affinité pour le composé à filtrer. 
+Par exemple, il existe des colonnes de dépollution des solutions de bromure d'éthidium (BEt), un composé toxique, qui ne doit pas être relargué dans la nature (jeté à l'évier). Le BEt est fixé sur le substrat, seul le solvant liquide traverse la colonne et peut être jeté, car débarrassé du toxique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colonne_de_biologie_moléculaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_de_biologie_mol%C3%A9culaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Colonne d'HPLC</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
